--- a/carbonCalculator/Carbon-Calculator-Metrics-Guide.xlsx
+++ b/carbonCalculator/Carbon-Calculator-Metrics-Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://actionsustainability.sharepoint.com/sites/SustainabilityTool527/Shared Documents/Tool Clients/Climate Action Group - Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles.naud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2914F04C-0CCC-4933-92A8-9CB97F762443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F017D8-0030-4F02-9212-15791B84754C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{C50B8EF5-C815-4D0F-9E3D-344578669668}"/>
+    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{C50B8EF5-C815-4D0F-9E3D-344578669668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home " sheetId="7" r:id="rId1"/>
@@ -35,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -793,12 +792,6 @@
     <t xml:space="preserve">The amount of Road miles travelled in Petrol Cars NOT owned by your organisation for this period. </t>
   </si>
   <si>
-    <t>Diesel HGV, Average Landen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The amount of Road miles travelled in Diesel HGV, Average Landen NOT owned by your organisation for this period. </t>
-  </si>
-  <si>
     <t>The amount of Road miles travelled in Diesel Vans NOT owned by your organisation for this period.</t>
   </si>
   <si>
@@ -1022,13 +1015,19 @@
   </si>
   <si>
     <t>Total water consumption in this period. The conversion factors include carbon emissions associated with water supply &amp; water treatment.</t>
+  </si>
+  <si>
+    <t>Diesel HGV, Average Laden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of Road miles travelled in Diesel HGV, Average Laden NOT owned by your organisation for this period. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,12 +1436,18 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,6 +1457,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1460,18 +1471,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1916,44 +1915,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FAAC04-59AC-4D02-9D1F-C35044798AAF}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" customWidth="1"/>
-    <col min="2" max="2" width="106.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="55.44140625" customWidth="1"/>
+    <col min="2" max="2" width="106.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="71.45" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:3" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-    </row>
-    <row r="2" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="57" t="s">
+      <c r="B1" s="50"/>
+    </row>
+    <row r="2" spans="1:3" ht="25.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57"/>
-    </row>
-    <row r="4" spans="1:3" ht="35.450000000000003" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
+      <c r="B3" s="54"/>
+    </row>
+    <row r="4" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
+    <row r="5" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1961,132 +1960,138 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29.1" customHeight="1">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:3" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="55" t="s">
+    <row r="8" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
+      <c r="B8" s="53"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="50"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="51"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="55" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="52"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="49"/>
+      <c r="B11" s="53"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="38"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
       <c r="B13" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49"/>
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="52" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="50"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="47" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="57"/>
+      <c r="B16" s="52"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58"/>
+      <c r="B17" s="53"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="50"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="51"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="55" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="52"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="48"/>
+      <c r="B20" s="53"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="50"/>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="50"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="55" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="48"/>
+      <c r="B22" s="52"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="48"/>
+      <c r="B23" s="52"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="50"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="51"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="47" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49"/>
+      <c r="B26" s="53"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="50"/>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="51"/>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="48"/>
+      <c r="B28" s="52"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A24:A26"/>
@@ -2100,12 +2105,6 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9:A11" location="'Fossil Fuels'!A1" display="Fossil fuels" xr:uid="{50397288-14DD-4C6A-AE04-205D4FA9BC6E}"/>
@@ -2125,19 +2124,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AAE952-8F52-4EF5-9A7B-4FA6EC9B3EB2}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="82.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="82.44140625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1">
+    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>20</v>
       </c>
@@ -2146,14 +2145,14 @@
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="55.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="71"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.1" customHeight="1">
+    <row r="4" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>4</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row r="5" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="65"/>
       <c r="B5" s="7" t="s">
         <v>28</v>
@@ -2200,7 +2199,7 @@
       </c>
       <c r="E5" s="68"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
       <c r="B6" s="61" t="s">
         <v>30</v>
@@ -2209,7 +2208,7 @@
       <c r="D6" s="63"/>
       <c r="E6" s="68"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
       <c r="B7" s="27" t="s">
         <v>31</v>
@@ -2222,7 +2221,7 @@
       </c>
       <c r="E7" s="68"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" s="27" t="s">
         <v>33</v>
@@ -2235,7 +2234,7 @@
       </c>
       <c r="E8" s="68"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" s="27" t="s">
         <v>35</v>
@@ -2248,7 +2247,7 @@
       </c>
       <c r="E9" s="68"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="27" t="s">
         <v>37</v>
@@ -2261,7 +2260,7 @@
       </c>
       <c r="E10" s="68"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="65"/>
       <c r="B11" s="27" t="s">
         <v>39</v>
@@ -2274,7 +2273,7 @@
       </c>
       <c r="E11" s="68"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="65"/>
       <c r="B12" s="27" t="s">
         <v>41</v>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="E12" s="68"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="27" t="s">
         <v>43</v>
@@ -2300,7 +2299,7 @@
       </c>
       <c r="E13" s="68"/>
     </row>
-    <row r="14" spans="1:5" ht="29.45" thickBot="1">
+    <row r="14" spans="1:5" ht="30.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="66"/>
       <c r="B14" s="35" t="s">
         <v>45</v>
@@ -2313,20 +2312,20 @@
       </c>
       <c r="E14" s="69"/>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1"/>
-    <row r="16" spans="1:5" ht="29.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:5" ht="29.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="72" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="73"/>
     </row>
-    <row r="17" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="17" spans="1:2" ht="33.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="60"/>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1">
+    <row r="18" spans="1:2" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41">
         <v>1</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1">
+    <row r="19" spans="1:2" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43">
         <f>SUM(A18/1.609)</f>
         <v>0.62150403977625857</v>
@@ -2364,15 +2363,15 @@
       <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.88671875" style="6" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1">
+    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>51</v>
       </c>
@@ -2381,14 +2380,14 @@
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
     </row>
-    <row r="2" spans="1:5" ht="23.1" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="23.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
         <v>6</v>
       </c>
@@ -2418,11 +2417,11 @@
       <c r="D4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" customHeight="1">
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="75"/>
       <c r="B5" s="24" t="s">
         <v>56</v>
@@ -2433,9 +2432,9 @@
       <c r="D5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
       <c r="B6" s="24" t="s">
         <v>58</v>
@@ -2446,9 +2445,9 @@
       <c r="D6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.1">
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A7" s="75"/>
       <c r="B7" s="24" t="s">
         <v>60</v>
@@ -2459,9 +2458,9 @@
       <c r="D7" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5" ht="29.1">
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="24" t="s">
         <v>63</v>
@@ -2472,9 +2471,9 @@
       <c r="D8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="75"/>
       <c r="B9" s="24" t="s">
         <v>65</v>
@@ -2485,18 +2484,18 @@
       <c r="D9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="75"/>
       <c r="B10" s="61" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5" ht="29.1">
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A11" s="75"/>
       <c r="B11" s="27" t="s">
         <v>68</v>
@@ -2507,9 +2506,9 @@
       <c r="D11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="75"/>
       <c r="B12" s="27" t="s">
         <v>71</v>
@@ -2520,9 +2519,9 @@
       <c r="D12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="75"/>
       <c r="B13" s="27" t="s">
         <v>73</v>
@@ -2533,9 +2532,9 @@
       <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="75"/>
       <c r="B14" s="27" t="s">
         <v>75</v>
@@ -2546,9 +2545,9 @@
       <c r="D14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="1:5" ht="29.1">
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A15" s="75"/>
       <c r="B15" s="27" t="s">
         <v>77</v>
@@ -2559,9 +2558,9 @@
       <c r="D15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5" ht="44.1" thickBot="1">
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" ht="45.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="76"/>
       <c r="B16" s="28" t="s">
         <v>79</v>
@@ -2572,7 +2571,7 @@
       <c r="D16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2593,16 +2592,16 @@
       <selection activeCell="E4" sqref="E4:E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>81</v>
       </c>
@@ -2611,14 +2610,14 @@
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82" t="s">
         <v>8</v>
       </c>
@@ -2644,20 +2643,20 @@
       </c>
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" customHeight="1">
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
       <c r="B5" s="61" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
       <c r="B6" s="27" t="s">
         <v>84</v>
@@ -2668,9 +2667,9 @@
       <c r="D6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
       <c r="B7" s="27" t="s">
         <v>86</v>
@@ -2681,9 +2680,9 @@
       <c r="D7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
       <c r="B8" s="27" t="s">
         <v>88</v>
@@ -2694,9 +2693,9 @@
       <c r="D8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
       <c r="B9" s="27" t="s">
         <v>90</v>
@@ -2707,9 +2706,9 @@
       <c r="D9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="27" t="s">
         <v>92</v>
@@ -2720,9 +2719,9 @@
       <c r="D10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
       <c r="B11" s="27" t="s">
         <v>94</v>
@@ -2733,9 +2732,9 @@
       <c r="D11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
       <c r="B12" s="27" t="s">
         <v>96</v>
@@ -2746,9 +2745,9 @@
       <c r="D12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
       <c r="B13" s="27" t="s">
         <v>98</v>
@@ -2759,9 +2758,9 @@
       <c r="D13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
       <c r="B14" s="27" t="s">
         <v>100</v>
@@ -2772,9 +2771,9 @@
       <c r="D14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
       <c r="B15" s="27" t="s">
         <v>102</v>
@@ -2785,9 +2784,9 @@
       <c r="D15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
       <c r="B16" s="27" t="s">
         <v>104</v>
@@ -2798,9 +2797,9 @@
       <c r="D16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="50"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
       <c r="B17" s="27" t="s">
         <v>106</v>
@@ -2811,9 +2810,9 @@
       <c r="D17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="52"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
       <c r="B18" s="27" t="s">
         <v>108</v>
@@ -2824,9 +2823,9 @@
       <c r="D18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="50"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="52"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
       <c r="B19" s="27" t="s">
         <v>110</v>
@@ -2837,9 +2836,9 @@
       <c r="D19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
       <c r="B20" s="27" t="s">
         <v>112</v>
@@ -2850,9 +2849,9 @@
       <c r="D20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="52"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
       <c r="B21" s="27" t="s">
         <v>114</v>
@@ -2863,9 +2862,9 @@
       <c r="D21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="50"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
       <c r="B22" s="27" t="s">
         <v>116</v>
@@ -2876,9 +2875,9 @@
       <c r="D22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="50"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="52"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="83"/>
       <c r="B23" s="27" t="s">
         <v>118</v>
@@ -2889,9 +2888,9 @@
       <c r="D23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="50"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="83"/>
       <c r="B24" s="27" t="s">
         <v>120</v>
@@ -2902,9 +2901,9 @@
       <c r="D24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="50"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="83"/>
       <c r="B25" s="27" t="s">
         <v>122</v>
@@ -2915,9 +2914,9 @@
       <c r="D25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="83"/>
       <c r="B26" s="27" t="s">
         <v>124</v>
@@ -2928,9 +2927,9 @@
       <c r="D26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="50"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="52"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="83"/>
       <c r="B27" s="27" t="s">
         <v>126</v>
@@ -2941,9 +2940,9 @@
       <c r="D27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="50"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="52"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="83"/>
       <c r="B28" s="27" t="s">
         <v>128</v>
@@ -2954,9 +2953,9 @@
       <c r="D28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="50"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="52"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="83"/>
       <c r="B29" s="27" t="s">
         <v>130</v>
@@ -2967,9 +2966,9 @@
       <c r="D29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="50"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="52"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="83"/>
       <c r="B30" s="27" t="s">
         <v>132</v>
@@ -2980,9 +2979,9 @@
       <c r="D30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="50"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="52"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="83"/>
       <c r="B31" s="27" t="s">
         <v>134</v>
@@ -2993,9 +2992,9 @@
       <c r="D31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="50"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="52"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="83"/>
       <c r="B32" s="27" t="s">
         <v>136</v>
@@ -3006,9 +3005,9 @@
       <c r="D32" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="50"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="52"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="83"/>
       <c r="B33" s="27" t="s">
         <v>138</v>
@@ -3019,9 +3018,9 @@
       <c r="D33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="50"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="52"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="83"/>
       <c r="B34" s="27" t="s">
         <v>140</v>
@@ -3032,9 +3031,9 @@
       <c r="D34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="50"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1">
+      <c r="E34" s="52"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="84"/>
       <c r="B35" s="28" t="s">
         <v>142</v>
@@ -3045,7 +3044,7 @@
       <c r="D35" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3067,15 +3066,15 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="41" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1">
+    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>144</v>
       </c>
@@ -3084,14 +3083,14 @@
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
     </row>
-    <row r="2" spans="1:5" ht="47.1" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="47.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74" t="s">
         <v>10</v>
       </c>
@@ -3121,20 +3120,20 @@
       <c r="D4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="51" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="75"/>
       <c r="B5" s="85" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="85"/>
       <c r="D5" s="85"/>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
       <c r="B6" s="9" t="s">
         <v>148</v>
@@ -3145,9 +3144,9 @@
       <c r="D6" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="75"/>
       <c r="B7" s="9" t="s">
         <v>151</v>
@@ -3158,9 +3157,9 @@
       <c r="D7" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5" ht="37.5" customHeight="1" thickBot="1">
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" ht="37.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
       <c r="B8" s="29" t="s">
         <v>154</v>
@@ -3171,7 +3170,7 @@
       <c r="D8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3192,16 +3191,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>156</v>
       </c>
@@ -3210,14 +3209,14 @@
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
     </row>
-    <row r="2" spans="1:5" ht="51.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3234,7 +3233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82" t="s">
         <v>157</v>
       </c>
@@ -3243,20 +3242,20 @@
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="88"/>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="51" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
       <c r="B5" s="61" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
       <c r="B6" s="27" t="s">
         <v>159</v>
@@ -3267,9 +3266,9 @@
       <c r="D6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
       <c r="B7" s="27" t="s">
         <v>161</v>
@@ -3280,9 +3279,9 @@
       <c r="D7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
       <c r="B8" s="27" t="s">
         <v>163</v>
@@ -3293,9 +3292,9 @@
       <c r="D8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
       <c r="B9" s="27" t="s">
         <v>165</v>
@@ -3306,9 +3305,9 @@
       <c r="D9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="27" t="s">
         <v>167</v>
@@ -3319,9 +3318,9 @@
       <c r="D10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
       <c r="B11" s="27" t="s">
         <v>169</v>
@@ -3332,9 +3331,9 @@
       <c r="D11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
       <c r="B12" s="27" t="s">
         <v>171</v>
@@ -3345,9 +3344,9 @@
       <c r="D12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
       <c r="B13" s="27" t="s">
         <v>173</v>
@@ -3358,9 +3357,9 @@
       <c r="D13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
       <c r="B14" s="27" t="s">
         <v>175</v>
@@ -3371,9 +3370,9 @@
       <c r="D14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
       <c r="B15" s="27" t="s">
         <v>177</v>
@@ -3384,9 +3383,9 @@
       <c r="D15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
       <c r="B16" s="27" t="s">
         <v>179</v>
@@ -3397,9 +3396,9 @@
       <c r="D16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="50"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
       <c r="B17" s="27" t="s">
         <v>181</v>
@@ -3410,9 +3409,9 @@
       <c r="D17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="52"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
       <c r="B18" s="27" t="s">
         <v>183</v>
@@ -3423,9 +3422,9 @@
       <c r="D18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="50"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="52"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
       <c r="B19" s="27" t="s">
         <v>185</v>
@@ -3436,9 +3435,9 @@
       <c r="D19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
       <c r="B20" s="27" t="s">
         <v>187</v>
@@ -3449,9 +3448,9 @@
       <c r="D20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="52"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
       <c r="B21" s="27" t="s">
         <v>189</v>
@@ -3462,9 +3461,9 @@
       <c r="D21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="50"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
       <c r="B22" s="27" t="s">
         <v>191</v>
@@ -3475,9 +3474,9 @@
       <c r="D22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="50"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="52"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="83"/>
       <c r="B23" s="27" t="s">
         <v>193</v>
@@ -3488,9 +3487,9 @@
       <c r="D23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="50"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="83"/>
       <c r="B24" s="27" t="s">
         <v>195</v>
@@ -3501,9 +3500,9 @@
       <c r="D24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="50"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="83"/>
       <c r="B25" s="27" t="s">
         <v>197</v>
@@ -3514,9 +3513,9 @@
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="83"/>
       <c r="B26" s="27" t="s">
         <v>199</v>
@@ -3527,9 +3526,9 @@
       <c r="D26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="50"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1">
+      <c r="E26" s="52"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="84"/>
       <c r="B27" s="28" t="s">
         <v>201</v>
@@ -3540,9 +3539,9 @@
       <c r="D27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="51"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E27" s="53"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>203</v>
       </c>
@@ -3564,19 +3563,19 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="82.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="82.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1">
+    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>204</v>
       </c>
@@ -3585,14 +3584,14 @@
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
     </row>
-    <row r="2" spans="1:5" ht="26.1" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.1" customHeight="1">
+    <row r="4" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
         <v>14</v>
       </c>
@@ -3622,11 +3621,11 @@
       <c r="D4" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="51" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.1">
+    <row r="5" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
       <c r="B5" s="24" t="s">
         <v>28</v>
@@ -3637,153 +3636,153 @@
       <c r="D5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:5" ht="29.1">
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A6" s="90"/>
       <c r="B6" s="24" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.1">
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5" ht="29.45" thickBot="1">
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" ht="30.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
       <c r="B8" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="90"/>
       <c r="B9" s="61" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="90"/>
       <c r="B10" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="90"/>
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="90"/>
       <c r="B12" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
       <c r="B13" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
       <c r="B14" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="90"/>
       <c r="B15" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
+        <v>214</v>
+      </c>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="91"/>
       <c r="B16" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="51"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1">
+        <v>214</v>
+      </c>
+      <c r="E16" s="53"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
+    <row r="18" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="72" t="s">
         <v>47</v>
       </c>
@@ -3792,16 +3791,16 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="36.950000000000003" customHeight="1" thickBot="1">
+    <row r="19" spans="1:3" ht="36.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B19" s="60"/>
       <c r="C19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1">
+    <row r="20" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="46">
         <v>1</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
+    <row r="21" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43">
         <f>SUM(A20/1.609)</f>
         <v>0.62150403977625857</v>
@@ -3824,30 +3823,30 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
+    <row r="22" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1">
+    <row r="23" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" s="73"/>
       <c r="C23" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6" customHeight="1" thickBot="1">
+    <row r="24" spans="1:3" ht="27.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B24" s="60"/>
       <c r="C24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1">
+    <row r="25" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44">
         <f>SUM(A26*1.609)</f>
         <v>1.609</v>
@@ -3859,7 +3858,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1">
+    <row r="26" spans="1:3" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="45">
         <v>1</v>
       </c>
@@ -3890,30 +3889,30 @@
       <selection activeCell="E4" sqref="E4:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3930,378 +3929,378 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="94"/>
-      <c r="E4" s="49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
       <c r="B5" s="61" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
       <c r="B6" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
       <c r="B7" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
       <c r="B8" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
       <c r="B9" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
       <c r="B10" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
       <c r="B11" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
       <c r="B12" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
       <c r="B13" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
       <c r="B14" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
       <c r="B15" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
       <c r="B16" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="50"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
       <c r="B17" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="52"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
       <c r="B18" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="50"/>
-    </row>
-    <row r="19" spans="1:5" ht="29.1">
+      <c r="E18" s="52"/>
+    </row>
+    <row r="19" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
       <c r="B19" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="1:5" ht="29.1">
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
       <c r="B20" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="52"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
       <c r="B21" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="50"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
       <c r="B22" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="50"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="52"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="83"/>
       <c r="B23" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="50"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="83"/>
       <c r="B24" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="50"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="83"/>
       <c r="B25" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="83"/>
       <c r="B26" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="50"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="52"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="83"/>
       <c r="B27" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="50"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="52"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="83"/>
       <c r="B28" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="50"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="52"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="83"/>
       <c r="B29" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="50"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="52"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="83"/>
       <c r="B30" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="50"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="52"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="83"/>
       <c r="B31" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="50"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1">
+      <c r="E31" s="52"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="84"/>
       <c r="B32" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4323,31 +4322,31 @@
       <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4364,40 +4363,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="95" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C4" s="99"/>
       <c r="D4" s="100"/>
-      <c r="E4" s="49" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="51" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
       <c r="B5" s="62" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:5" ht="63.6" customHeight="1" thickBot="1">
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" ht="63.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="97"/>
       <c r="B6" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4412,12 +4411,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003838AE3E0C06F54FA57C86F87FB55777" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc77318674ecb6c557a0ca800110092c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ce030c41-a65b-41c3-8b29-370418f0c571" xmlns:ns3="84f3f96e-86b0-45e5-befd-d0e6637563a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c07147f61b3a1b33e3950effc4084ef" ns2:_="" ns3:_="">
     <xsd:import namespace="ce030c41-a65b-41c3-8b29-370418f0c571"/>
@@ -4634,6 +4627,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4644,13 +4643,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC93E4BA-6B40-4A6A-8185-4C8C233A2E16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0734BEB-884F-4E25-AEBA-18E60E0C5214}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ce030c41-a65b-41c3-8b29-370418f0c571"/>
+    <ds:schemaRef ds:uri="84f3f96e-86b0-45e5-befd-d0e6637563a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0734BEB-884F-4E25-AEBA-18E60E0C5214}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC93E4BA-6B40-4A6A-8185-4C8C233A2E16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49C65E24-CC06-4581-8E51-0F151425BBEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49C65E24-CC06-4581-8E51-0F151425BBEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>